--- a/application/controllers/excel-templates/SF_FOC_Tax_Invoice_Inter_State_v1.xlsx
+++ b/application/controllers/excel-templates/SF_FOC_Tax_Invoice_Inter_State_v1.xlsx
@@ -907,22 +907,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,8 +943,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,135 +1002,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,13 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1099,45 +1029,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="K23" sqref="K23:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1485,24 +1485,24 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1515,26 +1515,26 @@
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1546,46 +1546,46 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1598,24 +1598,24 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1628,22 +1628,22 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1656,26 +1656,26 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1688,26 +1688,26 @@
     </row>
     <row r="9" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="30" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="1"/>
@@ -1722,24 +1722,24 @@
     </row>
     <row r="10" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1752,24 +1752,24 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1782,24 +1782,24 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1840,28 +1840,28 @@
     </row>
     <row r="14" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="44" t="s">
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="45"/>
+      <c r="Q14" s="67"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1874,36 +1874,36 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52" t="s">
+      <c r="L15" s="69"/>
+      <c r="M15" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55" t="s">
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="56"/>
+      <c r="Q15" s="64"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1916,26 +1916,26 @@
     </row>
     <row r="16" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="62" t="s">
+      <c r="N16" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="56"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="64"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1948,38 +1948,38 @@
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="68" t="s">
+      <c r="L17" s="106"/>
+      <c r="M17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="70" t="s">
+      <c r="N17" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="70" t="s">
+      <c r="O17" s="106"/>
+      <c r="P17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="71"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1992,32 +1992,32 @@
     </row>
     <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="75" t="s">
+      <c r="L18" s="111"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="75" t="s">
+      <c r="O18" s="111"/>
+      <c r="P18" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="78"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2030,28 +2030,28 @@
     </row>
     <row r="19" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="81" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="83" t="s">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="25"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2064,28 +2064,28 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="29"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2098,26 +2098,26 @@
     </row>
     <row r="21" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96" t="s">
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="97"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2130,27 +2130,26 @@
     </row>
     <row r="22" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="101" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="103" t="e">
-        <f>IF(#REF!="Y",P20,0)</f>
-        <v>#REF!</v>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="103">
+        <v>0</v>
       </c>
       <c r="Q22" s="104"/>
       <c r="R22" s="1"/>
@@ -2165,24 +2164,24 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="107" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2195,22 +2194,22 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="56"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="64"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2223,22 +2222,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2251,22 +2250,22 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="39"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="25"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2279,22 +2278,22 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="39"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="25"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2307,22 +2306,22 @@
     </row>
     <row r="28" spans="1:26" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="78"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -2335,24 +2334,24 @@
     </row>
     <row r="29" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="14" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="78"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -2365,24 +2364,24 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -29275,38 +29274,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="B12:Q13"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B6:Q7"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K23:Q24"/>
-    <mergeCell ref="K25:Q28"/>
-    <mergeCell ref="H22:J29"/>
-    <mergeCell ref="B22:G29"/>
-    <mergeCell ref="K22:O22"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B15:G16"/>
     <mergeCell ref="H15:H16"/>
@@ -29323,6 +29290,38 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K23:Q24"/>
+    <mergeCell ref="K25:Q28"/>
+    <mergeCell ref="H22:J29"/>
+    <mergeCell ref="B22:G29"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="B12:Q13"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B6:Q7"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/application/controllers/excel-templates/SF_FOC_Tax_Invoice_Inter_State_v1.xlsx
+++ b/application/controllers/excel-templates/SF_FOC_Tax_Invoice_Inter_State_v1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Name: Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Address: 92C/1, LANE 7, EAST AZAD NAGAR, KRISHNA NAGAR, DELHI 110051</t>
   </si>
   <si>
     <t>GSTIN: 07AAFCB1281J1ZQ</t>
@@ -179,11 +176,14 @@
   <si>
     <t>({meta:recipient_type})</t>
   </si>
+  <si>
+    <t>Address: A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,35 +973,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1050,6 +1021,35 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,6 +1159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1429,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1485,24 +1488,24 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1515,26 +1518,26 @@
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="39" t="s">
-        <v>49</v>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="61" t="s">
+        <v>48</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1568,24 +1571,24 @@
     </row>
     <row r="5" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1666,8 +1669,8 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="38" t="s">
-        <v>44</v>
+      <c r="J8" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -1697,7 +1700,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +1786,7 @@
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -1841,7 +1844,7 @@
     <row r="14" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -1851,17 +1854,17 @@
       <c r="H14" s="76"/>
       <c r="I14" s="78"/>
       <c r="J14" s="75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="76"/>
       <c r="L14" s="76"/>
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="76"/>
-      <c r="P14" s="66" t="s">
-        <v>13</v>
+      <c r="P14" s="55" t="s">
+        <v>12</v>
       </c>
-      <c r="Q14" s="67"/>
+      <c r="Q14" s="56"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1875,7 +1878,7 @@
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="98"/>
       <c r="D15" s="98"/>
@@ -1883,27 +1886,27 @@
       <c r="F15" s="98"/>
       <c r="G15" s="99"/>
       <c r="H15" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="J15" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="101" t="s">
+      <c r="K15" s="68" t="s">
         <v>17</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>18</v>
       </c>
       <c r="L15" s="69"/>
       <c r="M15" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="73"/>
       <c r="O15" s="74"/>
-      <c r="P15" s="63" t="s">
-        <v>20</v>
+      <c r="P15" s="52" t="s">
+        <v>19</v>
       </c>
-      <c r="Q15" s="64"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1928,14 +1931,14 @@
       <c r="K16" s="70"/>
       <c r="L16" s="71"/>
       <c r="M16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="N16" s="61" t="s">
-        <v>21</v>
+      <c r="N16" s="50" t="s">
+        <v>20</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="64"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1949,7 +1952,7 @@
     <row r="17" spans="1:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -1957,27 +1960,27 @@
       <c r="F17" s="108"/>
       <c r="G17" s="106"/>
       <c r="H17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="105" t="s">
         <v>25</v>
-      </c>
-      <c r="K17" s="105" t="s">
-        <v>26</v>
       </c>
       <c r="L17" s="106"/>
       <c r="M17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" s="105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" s="106"/>
       <c r="P17" s="105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="115"/>
       <c r="R17" s="1"/>
@@ -1993,7 +1996,7 @@
     <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2002,20 +2005,20 @@
       <c r="G18" s="109"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="111"/>
       <c r="M18" s="10"/>
       <c r="N18" s="110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="111"/>
       <c r="P18" s="110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="80"/>
       <c r="R18" s="1"/>
@@ -2031,7 +2034,7 @@
     <row r="19" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
@@ -2042,14 +2045,14 @@
       <c r="I19" s="94"/>
       <c r="J19" s="94"/>
       <c r="K19" s="113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="114"/>
       <c r="P19" s="112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="1"/>
@@ -2064,28 +2067,28 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="46" t="s">
-        <v>37</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="57" t="s">
-        <v>38</v>
+      <c r="O20" s="36"/>
+      <c r="P20" s="46" t="s">
+        <v>37</v>
       </c>
-      <c r="Q20" s="58"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2098,26 +2101,26 @@
     </row>
     <row r="21" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="48" t="s">
-        <v>46</v>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="37" t="s">
+        <v>45</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="59" t="s">
-        <v>39</v>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="48" t="s">
+        <v>38</v>
       </c>
-      <c r="Q21" s="60"/>
+      <c r="Q21" s="49"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2131,18 +2134,18 @@
     <row r="22" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="88"/>
       <c r="H22" s="84"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
@@ -2174,7 +2177,7 @@
       <c r="I23" s="85"/>
       <c r="J23" s="25"/>
       <c r="K23" s="81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -2209,7 +2212,7 @@
       <c r="N24" s="83"/>
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
-      <c r="Q24" s="64"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2232,12 +2235,12 @@
       <c r="I25" s="85"/>
       <c r="J25" s="25"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2343,8 +2346,8 @@
       <c r="H29" s="86"/>
       <c r="I29" s="79"/>
       <c r="J29" s="80"/>
-      <c r="K29" s="43" t="s">
-        <v>43</v>
+      <c r="K29" s="65" t="s">
+        <v>42</v>
       </c>
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
@@ -2365,7 +2368,7 @@
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
